--- a/biology/Botanique/Cocconeidaceae/Cocconeidaceae.xlsx
+++ b/biology/Botanique/Cocconeidaceae/Cocconeidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cocconeidaceae sont une famille d'algues de l'embranchement des Bacillariophyta, de la classe des Bacillariophyceae et de l’ordre des Achnanthales.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Cocconeis, dérivé du préfixe grec κοκκοσ- / kokkos-, « graine ; pépin ; baie », et du suffixe -neis dont l'étymologie n'a pas été explicitée par Ehrenberg lorsqu'il créa le genre en 1835[1] ; il pourrait s'agir du grec νηίς / nēís, naiade, une « nymphe aquatique » de la mythologie grecque, faisant littéralement du Cocconeis une « graine aquatique ». Or une Naïade étant une déesse des eaux douces, cette explication est peu probable.
-Selon Paul Silva « neis est dérivé du grec νηυς / nèys, la forme ionique et épique de ναῦς / nays (latin navis, bateau)[note 1], donnant le radical -neid de Cocconeidaceae »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Cocconeis, dérivé du préfixe grec κοκκοσ- / kokkos-, « graine ; pépin ; baie », et du suffixe -neis dont l'étymologie n'a pas été explicitée par Ehrenberg lorsqu'il créa le genre en 1835 ; il pourrait s'agir du grec νηίς / nēís, naiade, une « nymphe aquatique » de la mythologie grecque, faisant littéralement du Cocconeis une « graine aquatique ». Or une Naïade étant une déesse des eaux douces, cette explication est peu probable.
+Selon Paul Silva « neis est dérivé du grec νηυς / nèys, la forme ionique et épique de ναῦς / nays (latin navis, bateau)[note 1], donnant le radical -neid de Cocconeidaceae ».
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,9 +613,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liste des genres selon AlgaeBase                                           (25 avril 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des genres selon AlgaeBase                                           (25 avril 2022) :
 Amphicocconeis M.De Stefano &amp; D.Marino, 2002
 Anorthoneis Grunow, 1868
 Bennettella R.W.Holmes, 1985
@@ -635,9 +655,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cocconeidaceae Kützing, 1844[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cocconeidaceae Kützing, 1844.
 </t>
         </is>
       </c>
